--- a/bydhistorical.xlsx
+++ b/bydhistorical.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
   <si>
     <t>_kp_job_id</t>
   </si>
@@ -3034,9 +3034,6 @@
 }</t>
   </si>
   <si>
-    <t>Entered</t>
-  </si>
-  <si>
     <t>SKYFORT III w-SPIRAL SLIDE- DS BOX 1</t>
   </si>
   <si>
@@ -3175,187 +3172,10 @@
 }</t>
   </si>
   <si>
+    <t>Entered</t>
+  </si>
+  <si>
     <t>Blake Lewis</t>
-  </si>
-  <si>
-    <t>6300714</t>
-  </si>
-  <si>
-    <t>{
-	"6300714" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/9/2026 8:01:41 AM",
-		"username" : "James Eckhardt"
-	},
-	"6300715" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/9/2026 8:01:53 AM",
-		"username" : "James Eckhardt"
-	},
-	"6300716" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/9/2026 8:01:49 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6305610</t>
-  </si>
-  <si>
-    <t>{
-	"6305610" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:04:37 AM",
-		"username" : "James Eckhardt"
-	},
-	"6305611" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:04:46 AM",
-		"username" : "James Eckhardt"
-	},
-	"6305612" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:04:50 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6310319</t>
-  </si>
-  <si>
-    <t>{
-	"6310319" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:05:17 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310320" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:05:25 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310321" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:05:30 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310322" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:05:33 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310323" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:05:36 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6311923</t>
-  </si>
-  <si>
-    <t>{
-	"6311923" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:21:01 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311924" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:20:57 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311925" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:19:33 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311926" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:19:28 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311927" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:21:48 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311928" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:21:36 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311929" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:22:13 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311930" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:22:29 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
   </si>
   <si>
     <t>GAZEBO -BARRINGTON 24x12 -DS BOX 1</t>
@@ -3566,57 +3386,33 @@
 }</t>
   </si>
   <si>
-    <t>6311439</t>
-  </si>
-  <si>
-    <t>{
-	"6311439" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:46:36 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311440" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:46:32 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311441" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:46:23 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311442" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:46:28 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311443" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:46:43 AM",
-		"username" : "James Eckhardt"
-	},
-	"6311444" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:47:04 AM",
-		"username" : "James Eckhardt"
+    <t>6320079</t>
+  </si>
+  <si>
+    <t>{
+	"6320079" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:45:02 AM",
+		"username" : "Robert Wells"
+	},
+	"6320080" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:45:13 AM",
+		"username" : "Robert Wells"
+	},
+	"6320081" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:45:18 AM",
+		"username" : "Robert Wells"
 	}
 }</t>
   </si>
@@ -3624,7 +3420,48 @@
     <t>6319628</t>
   </si>
   <si>
-    <t>6320079</t>
+    <t>{
+	"6319628" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:45 AM",
+		"username" : "Robert Wells"
+	},
+	"6319629" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:41 AM",
+		"username" : "Robert Wells"
+	},
+	"6319630" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:57 AM",
+		"username" : "Robert Wells"
+	},
+	"6319631" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:48 AM",
+		"username" : "Robert Wells"
+	},
+	"6319632" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:53 AM",
+		"username" : "Robert Wells"
+	}
+}</t>
   </si>
   <si>
     <t>PEPw</t>
@@ -3637,12 +3474,6 @@
   </si>
   <si>
     <t>4 pallets</t>
-  </si>
-  <si>
-    <t>Seating/Furniture - Essential Chair</t>
-  </si>
-  <si>
-    <t>127392831-0</t>
   </si>
   <si>
     <t>127379545-0</t>
@@ -3701,6 +3532,247 @@
 }</t>
   </si>
   <si>
+    <t>6300714</t>
+  </si>
+  <si>
+    <t>{
+	"6300714" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/9/2026 8:01:41 AM",
+		"username" : "James Eckhardt"
+	},
+	"6300715" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/9/2026 8:01:53 AM",
+		"username" : "James Eckhardt"
+	},
+	"6300716" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/9/2026 8:01:49 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6305610</t>
+  </si>
+  <si>
+    <t>{
+	"6305610" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:04:37 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305611" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:04:46 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305612" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:04:50 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6310319</t>
+  </si>
+  <si>
+    <t>{
+	"6310319" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:05:17 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310320" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:05:25 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310321" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:05:30 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310322" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:05:33 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310323" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:05:36 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6311439</t>
+  </si>
+  <si>
+    <t>{
+	"6311439" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:46:36 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311440" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:46:32 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311441" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:46:23 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311442" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:46:28 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311443" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:46:43 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311444" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:47:04 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6311923</t>
+  </si>
+  <si>
+    <t>{
+	"6311923" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:21:01 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311924" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:20:57 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311925" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:19:33 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311926" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:19:28 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311927" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:21:48 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311928" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:21:36 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311929" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:22:13 AM",
+		"username" : "James Eckhardt"
+	},
+	"6311930" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:22:29 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>Seating/Furniture - Essential Chair</t>
+  </si>
+  <si>
+    <t>127392831-0</t>
+  </si>
+  <si>
     <t>6297370</t>
   </si>
   <si>
@@ -3980,412 +4052,844 @@
 }</t>
   </si>
   <si>
+    <t>BYDs</t>
+  </si>
+  <si>
+    <t>6305596</t>
+  </si>
+  <si>
+    <t>{
+	"6305596" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:45:14 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305597" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:44:57 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305598" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:46:07 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305599" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:46:02 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305600" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:45:27 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305601" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:45:32 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305602" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:45:02 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305603" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:45:08 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>BRISTOL POINT SWING SET - DS BOX 1</t>
+  </si>
+  <si>
+    <t>6305945</t>
+  </si>
+  <si>
+    <t>{
+	"6305945" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:43:52 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305946" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:43:48 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305947" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:43:57 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305948" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:43:25 AM",
+		"username" : "James Eckhardt"
+	},
+	"6305949" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:44:10 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6306499</t>
+  </si>
+  <si>
+    <t>{
+	"6306499" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:40:26 AM",
+		"username" : "James Eckhardt"
+	},
+	"6306500" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:40:47 AM",
+		"username" : "James Eckhardt"
+	},
+	"6306501" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:40:33 AM",
+		"username" : "James Eckhardt"
+	},
+	"6306502" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:40:38 AM",
+		"username" : "James Eckhardt"
+	},
+	"6306503" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:40:56 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6307924</t>
+  </si>
+  <si>
+    <t>{
+	"6307924" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:36:10 AM",
+		"username" : "James Eckhardt"
+	},
+	"6307925" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:36:15 AM",
+		"username" : "James Eckhardt"
+	},
+	"6307926" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:47 AM",
+		"username" : "James Eckhardt"
+	},
+	"6307927" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:43 AM",
+		"username" : "James Eckhardt"
+	},
+	"6307928" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:40:31 AM",
+		"username" : "James Eckhardt"
+	},
+	"6307929" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:36:02 AM",
+		"username" : "James Eckhardt"
+	},
+	"6307930" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:56 AM",
+		"username" : "James Eckhardt"
+	},
+	"6307931" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:54 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>MAGNOLIA FALLS w/SPIRAL-DS BOX 1</t>
+  </si>
+  <si>
+    <t>6309882</t>
+  </si>
+  <si>
+    <t>{
+	"6309882" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:08:57 AM",
+		"username" : "James Eckhardt"
+	},
+	"6309883" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:09:02 AM",
+		"username" : "James Eckhardt"
+	},
+	"6309884" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:09:10 AM",
+		"username" : "James Eckhardt"
+	},
+	"6309885" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:13:14 AM",
+		"username" : "James Eckhardt"
+	},
+	"6309886" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:28:54 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6310101</t>
+  </si>
+  <si>
+    <t>{
+	"6310101" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:13:36 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310102" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:13:33 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310103" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:13:28 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310104" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:18:29 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310105" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:18:20 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>MAGNOLIA FALLS w/SPIRAL-DS BOX 5</t>
+  </si>
+  <si>
+    <t>6310825</t>
+  </si>
+  <si>
+    <t>{
+	"6310825" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:18:52 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310826" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:19:08 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310827" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:19:04 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310828" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:19:01 AM",
+		"username" : "James Eckhardt"
+	},
+	"6310829" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:18:42 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>POPPY GREENHOUSE -DS BOX 1</t>
+  </si>
+  <si>
+    <t>6312125</t>
+  </si>
+  <si>
+    <t>{
+	"6312125" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 6:59:44 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312126" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 6:59:25 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312127" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 6:59:07 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312128" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 6:59:22 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312129" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 6:59:13 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312130" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:01 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312131" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 6:59:16 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6312911</t>
+  </si>
+  <si>
+    <t>{
+	"6312911" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:32:54 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312912" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:32:47 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312913" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:32:50 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312914" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:32:42 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312915" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:33:16 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6313149</t>
+  </si>
+  <si>
+    <t>{
+	"6313149" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:14 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313150" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:19 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313151" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:27 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313152" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:34 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313153" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 7:35:23 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6314660</t>
+  </si>
+  <si>
+    <t>{
+	"6314660" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:51:57 AM",
+		"username" : "James Eckhardt"
+	},
+	"6314661" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:52:01 AM",
+		"username" : "James Eckhardt"
+	},
+	"6314662" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:51:52 AM",
+		"username" : "James Eckhardt"
+	},
+	"6314663" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:51:49 AM",
+		"username" : "James Eckhardt"
+	},
+	"6314664" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:52:13 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6316431</t>
+  </si>
+  <si>
+    <t>{
+	"6316431" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:47:17 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316432" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:47:12 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316433" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:47:04 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316434" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:46:59 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316435" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:46:51 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316436" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:46:47 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316437" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:47:28 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316438" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:51:14 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316439" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:47:45 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316440" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:47:08 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316441" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:47:23 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316442" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:51:20 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316443" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:48:34 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316444" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:48:28 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316445" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:48:54 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316446" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:48:49 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316447" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:48:43 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316448" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:49:10 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316449" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:50:04 AM",
+		"username" : "James Eckhardt"
+	},
+	"6316450" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:49:52 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
     <t>VALLEYo</t>
   </si>
   <si>
     <t>5PALLETS 209 CARTONS</t>
   </si>
   <si>
-    <t>BYDs</t>
-  </si>
-  <si>
-    <t>6305596</t>
-  </si>
-  <si>
-    <t>BRISTOL POINT SWING SET - DS BOX 1</t>
-  </si>
-  <si>
-    <t>6305945</t>
-  </si>
-  <si>
-    <t>6306499</t>
-  </si>
-  <si>
-    <t>6307924</t>
-  </si>
-  <si>
-    <t>{
-	"6307924" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:36:10 AM",
-		"username" : "James Eckhardt"
-	},
-	"6307925" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:36:15 AM",
-		"username" : "James Eckhardt"
-	},
-	"6307926" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:47 AM",
-		"username" : "James Eckhardt"
-	},
-	"6307927" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:43 AM",
-		"username" : "James Eckhardt"
-	},
-	"6307928" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:40:31 AM",
-		"username" : "James Eckhardt"
-	},
-	"6307929" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:36:02 AM",
-		"username" : "James Eckhardt"
-	},
-	"6307930" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:56 AM",
-		"username" : "James Eckhardt"
-	},
-	"6307931" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:54 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>MAGNOLIA FALLS w/SPIRAL-DS BOX 1</t>
-  </si>
-  <si>
-    <t>6309882</t>
-  </si>
-  <si>
-    <t>{
-	"6309882" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:08:57 AM",
-		"username" : "James Eckhardt"
-	},
-	"6309883" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:09:02 AM",
-		"username" : "James Eckhardt"
-	},
-	"6309884" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:09:10 AM",
-		"username" : "James Eckhardt"
-	},
-	"6309885" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:13:14 AM",
-		"username" : "James Eckhardt"
-	},
-	"6309886" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:28:54 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6310101</t>
-  </si>
-  <si>
-    <t>{
-	"6310101" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:13:36 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310102" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:13:33 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310103" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:13:28 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310104" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:18:29 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310105" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:18:20 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>MAGNOLIA FALLS w/SPIRAL-DS BOX 5</t>
-  </si>
-  <si>
-    <t>6310825</t>
-  </si>
-  <si>
-    <t>{
-	"6310825" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:18:52 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310826" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:19:08 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310827" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:19:04 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310828" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:19:01 AM",
-		"username" : "James Eckhardt"
-	},
-	"6310829" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:18:42 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>POPPY GREENHOUSE -DS BOX 1</t>
-  </si>
-  <si>
-    <t>6312125</t>
-  </si>
-  <si>
-    <t>{
-	"6312125" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 6:59:44 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312126" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 6:59:25 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312127" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 6:59:07 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312128" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 6:59:22 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312129" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 6:59:13 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312130" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:01 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312131" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 6:59:16 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6312911</t>
-  </si>
-  <si>
-    <t>{
-	"6312911" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:32:54 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312912" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:32:47 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312913" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:32:50 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312914" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:32:42 AM",
-		"username" : "James Eckhardt"
-	},
-	"6312915" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:33:16 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6313149</t>
-  </si>
-  <si>
-    <t>{
-	"6313149" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:14 AM",
-		"username" : "James Eckhardt"
-	},
-	"6313150" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:19 AM",
-		"username" : "James Eckhardt"
-	},
-	"6313151" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:27 AM",
-		"username" : "James Eckhardt"
-	},
-	"6313152" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:34 AM",
-		"username" : "James Eckhardt"
-	},
-	"6313153" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 7:35:23 AM",
-		"username" : "James Eckhardt"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6314660</t>
-  </si>
-  <si>
-    <t>6316431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEATHER </t>
+    <t>6320475</t>
+  </si>
+  <si>
+    <t>{
+	"6320475" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:45:55 PM",
+		"username" : "Derek Bell"
+	},
+	"6320476" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:46:02 PM",
+		"username" : "Derek Bell"
+	},
+	"6320477" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:46:07 PM",
+		"username" : "Derek Bell"
+	},
+	"6320478" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:45:51 PM",
+		"username" : "Derek Bell"
+	},
+	"6320479" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:45:45 PM",
+		"username" : "Derek Bell"
+	},
+	"6320480" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:45:37 PM",
+		"username" : "Derek Bell"
+	},
+	"6320481" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:46:26 PM",
+		"username" : "Derek Bell"
+	},
+	"6320482" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:45:32 PM",
+		"username" : "Derek Bell"
+	}
+}</t>
   </si>
   <si>
     <t>VALLEYb</t>
@@ -4409,77 +4913,6 @@
 }</t>
   </si>
   <si>
-    <t>6320475</t>
-  </si>
-  <si>
-    <t>{
-	"6320475" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:45:55 PM",
-		"username" : "Derek Bell"
-	},
-	"6320476" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:46:02 PM",
-		"username" : "Derek Bell"
-	},
-	"6320477" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:46:07 PM",
-		"username" : "Derek Bell"
-	},
-	"6320478" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:45:51 PM",
-		"username" : "Derek Bell"
-	},
-	"6320479" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:45:45 PM",
-		"username" : "Derek Bell"
-	},
-	"6320480" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:45:37 PM",
-		"username" : "Derek Bell"
-	},
-	"6320481" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:46:26 PM",
-		"username" : "Derek Bell"
-	},
-	"6320482" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:45:32 PM",
-		"username" : "Derek Bell"
-	}
-}</t>
-  </si>
-  <si>
     <t>ANIMAL ENCLOSURE-COSTCO -DS BOX 1</t>
   </si>
   <si>
@@ -4514,6 +4947,213 @@
 }</t>
   </si>
   <si>
+    <t>6308052</t>
+  </si>
+  <si>
+    <t>{
+	"6308052" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:12:57 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6308053" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:13:02 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6308054" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:13:06 PM",
+		"username" : "Mark Shoemaker"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6304761</t>
+  </si>
+  <si>
+    <t>{
+	"6304761" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:31:25 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6304762" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:31:29 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6304763" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:31:32 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6304764" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:31:50 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6304765" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:31:35 PM",
+		"username" : "Mark Shoemaker"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6306816</t>
+  </si>
+  <si>
+    <t>{
+	"6306816" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:13:38 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6306817" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:14:33 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6306818" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:13:50 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6306819" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:13:55 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6306820" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:17:22 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6306821" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:14:07 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6306822" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:13:46 PM",
+		"username" : "Mark Shoemaker"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6313202</t>
+  </si>
+  <si>
+    <t>{
+	"6313202" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:04:21 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6313203" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:04:27 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6313204" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:04:14 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6313205" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:04:01 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6313206" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:04:05 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6313207" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:04:49 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6313208" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:04:09 PM",
+		"username" : "Mark Shoemaker"
+	}
+}</t>
+  </si>
+  <si>
+    <t>Wade DeHaven</t>
+  </si>
+  <si>
     <t>6313154</t>
   </si>
   <si>
@@ -4605,210 +5245,6 @@
 		"manual" : 0,
 		"timestamp" : "2/12/2026 10:37:01 AM",
 		"username" : "Derek Bell"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6308052</t>
-  </si>
-  <si>
-    <t>{
-	"6308052" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:12:57 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6308053" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:13:02 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6308054" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:13:06 PM",
-		"username" : "Mark Shoemaker"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6304761</t>
-  </si>
-  <si>
-    <t>{
-	"6304761" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:31:25 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6304762" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:31:29 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6304763" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:31:32 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6304764" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:31:50 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6304765" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:31:35 PM",
-		"username" : "Mark Shoemaker"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6306816</t>
-  </si>
-  <si>
-    <t>{
-	"6306816" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:13:38 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6306817" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:14:33 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6306818" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:13:50 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6306819" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:13:55 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6306820" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:17:22 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6306821" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:14:07 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6306822" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:13:46 PM",
-		"username" : "Mark Shoemaker"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6313202</t>
-  </si>
-  <si>
-    <t>{
-	"6313202" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:04:21 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6313203" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:04:27 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6313204" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:04:14 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6313205" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:04:01 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6313206" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:04:05 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6313207" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:04:49 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6313208" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:04:09 PM",
-		"username" : "Mark Shoemaker"
 	}
 }</t>
   </si>
@@ -4847,6 +5283,72 @@
 }</t>
   </si>
   <si>
+    <t>6311837</t>
+  </si>
+  <si>
+    <t>{
+	"6311837" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:09:39 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6311838" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:09:44 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6311839" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:10:55 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6311840" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:10:51 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6311841" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:10:59 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6311842" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:11:40 PM",
+		"username" : "Mark Shoemaker"
+	},
+	"6311843" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/11/2026 12:09:48 PM",
+		"username" : "Mark Shoemaker"
+	}
+}</t>
+  </si>
+  <si>
+    <t>Derek Bell</t>
+  </si>
+  <si>
     <t>18507 - GCFG3060BD - Frigidaire Range</t>
   </si>
   <si>
@@ -4865,116 +5367,6 @@
 }</t>
   </si>
   <si>
-    <t>6310475</t>
-  </si>
-  <si>
-    <t>{
-	"6310475" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:31:23 AM",
-		"username" : "Derek Bell"
-	},
-	"6310476" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:31:29 AM",
-		"username" : "Derek Bell"
-	},
-	"6310477" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:31:33 AM",
-		"username" : "Derek Bell"
-	},
-	"6310478" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:29:59 AM",
-		"username" : "Derek Bell"
-	},
-	"6310479" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:31:49 AM",
-		"username" : "Derek Bell"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6316298</t>
-  </si>
-  <si>
-    <t>{
-	"6316298" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:39:42 PM",
-		"username" : "Derek Bell"
-	},
-	"6316299" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:39:32 PM",
-		"username" : "Derek Bell"
-	},
-	"6316300" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:40:13 PM",
-		"username" : "Derek Bell"
-	},
-	"6316301" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:50:31 PM",
-		"username" : "Derek Bell"
-	},
-	"6316302" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:41:39 PM",
-		"username" : "Derek Bell"
-	},
-	"6316303" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:39:52 PM",
-		"username" : "Derek Bell"
-	},
-	"6316304" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:39:47 PM",
-		"username" : "Derek Bell"
-	}
-}</t>
-  </si>
-  <si>
     <t>6318507</t>
   </si>
   <si>
@@ -5022,114 +5414,7 @@
 }</t>
   </si>
   <si>
-    <t>6319303</t>
-  </si>
-  <si>
-    <t>{
-	"6319303" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:38:52 PM",
-		"username" : "Derek Bell"
-	},
-	"6319304" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:38:48 PM",
-		"username" : "Derek Bell"
-	},
-	"6319305" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:38:44 PM",
-		"username" : "Derek Bell"
-	},
-	"6319306" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:38:40 PM",
-		"username" : "Derek Bell"
-	},
-	"6319307" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/16/2026 2:44:45 PM",
-		"username" : "Derek Bell"
-	}
-}</t>
-  </si>
-  <si>
-    <t>6311837</t>
-  </si>
-  <si>
-    <t>{
-	"6311837" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:09:39 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6311838" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:09:44 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6311839" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:10:55 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6311840" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:10:51 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6311841" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:10:59 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6311842" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:11:40 PM",
-		"username" : "Mark Shoemaker"
-	},
-	"6311843" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/11/2026 12:09:48 PM",
-		"username" : "Mark Shoemaker"
-	}
-}</t>
+    <t xml:space="preserve">HEATHER </t>
   </si>
   <si>
     <t>6300265</t>
@@ -5793,7 +6078,87 @@
     <t>6312351</t>
   </si>
   <si>
+    <t>{
+	"6312351" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:41:38 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312352" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:41:47 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312353" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:41:44 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312354" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:42:24 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312355" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:43:06 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
     <t>6312559</t>
+  </si>
+  <si>
+    <t>{
+	"6312559" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:39:47 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312560" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:39:50 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312561" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:39:58 AM",
+		"username" : "James Eckhardt"
+	},
+	"6312562" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:39:55 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
   </si>
   <si>
     <t>6312720</t>
@@ -5988,6 +6353,74 @@
     <t>6313340</t>
   </si>
   <si>
+    <t>{
+	"6313340" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:53:27 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313341" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:53:21 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313342" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:54:39 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313343" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:54:31 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313344" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:53:58 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313345" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:54:08 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313346" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:53:50 AM",
+		"username" : "James Eckhardt"
+	},
+	"6313347" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 8:53:42 AM",
+		"username" : "James Eckhardt"
+	}
+}</t>
+  </si>
+  <si>
     <t>6309546</t>
   </si>
   <si>
@@ -6082,6 +6515,77 @@
 }</t>
   </si>
   <si>
+    <t>6314652</t>
+  </si>
+  <si>
+    <t>{
+	"6314652" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:37:41 AM",
+		"username" : "Derek Bell"
+	},
+	"6314653" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:37:54 AM",
+		"username" : "Derek Bell"
+	},
+	"6314654" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:37:37 AM",
+		"username" : "Derek Bell"
+	},
+	"6314655" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:37:50 AM",
+		"username" : "Derek Bell"
+	},
+	"6314656" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:37:47 AM",
+		"username" : "Derek Bell"
+	},
+	"6314657" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:37:44 AM",
+		"username" : "Derek Bell"
+	},
+	"6314658" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:37:33 AM",
+		"username" : "Derek Bell"
+	},
+	"6314659" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:38:15 AM",
+		"username" : "Derek Bell"
+	}
+}</t>
+  </si>
+  <si>
     <t>6323461</t>
   </si>
   <si>
@@ -6137,84 +6641,161 @@
 }</t>
   </si>
   <si>
-    <t>6314652</t>
-  </si>
-  <si>
-    <t>{
-	"6314652" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:37:41 AM",
-		"username" : "Derek Bell"
-	},
-	"6314653" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:37:54 AM",
-		"username" : "Derek Bell"
-	},
-	"6314654" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:37:37 AM",
-		"username" : "Derek Bell"
-	},
-	"6314655" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:37:50 AM",
-		"username" : "Derek Bell"
-	},
-	"6314656" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:37:47 AM",
-		"username" : "Derek Bell"
-	},
-	"6314657" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:37:44 AM",
-		"username" : "Derek Bell"
-	},
-	"6314658" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:37:33 AM",
-		"username" : "Derek Bell"
-	},
-	"6314659" : 
-	{
-		"latitude" : "",
-		"longitude" : "",
-		"manual" : 0,
-		"timestamp" : "2/12/2026 10:38:15 AM",
-		"username" : "Derek Bell"
-	}
-}</t>
-  </si>
-  <si>
     <t>6321409</t>
   </si>
   <si>
+    <t>{
+	"6321409" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:44:04 AM",
+		"username" : "Robert Wells"
+	},
+	"6321410" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:44:50 AM",
+		"username" : "Robert Wells"
+	},
+	"6321411" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:43:59 AM",
+		"username" : "Robert Wells"
+	},
+	"6321412" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:43:55 AM",
+		"username" : "Robert Wells"
+	},
+	"6321413" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:43:50 AM",
+		"username" : "Robert Wells"
+	},
+	"6321414" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:43:46 AM",
+		"username" : "Robert Wells"
+	},
+	"6321415" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:43:42 AM",
+		"username" : "Robert Wells"
+	},
+	"6321416" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:44:16 AM",
+		"username" : "Robert Wells"
+	}
+}</t>
+  </si>
+  <si>
     <t>6318364</t>
   </si>
   <si>
+    <t>{
+	"6318364" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:45:43 AM",
+		"username" : "Robert Wells"
+	},
+	"6318365" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:45:51 AM",
+		"username" : "Robert Wells"
+	},
+	"6318366" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:45:47 AM",
+		"username" : "Robert Wells"
+	}
+}</t>
+  </si>
+  <si>
     <t>6321937</t>
+  </si>
+  <si>
+    <t>{
+	"6321937" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:31 AM",
+		"username" : "Robert Wells"
+	},
+	"6321938" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:09 AM",
+		"username" : "Robert Wells"
+	},
+	"6321939" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:20 AM",
+		"username" : "Robert Wells"
+	},
+	"6321940" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:14 AM",
+		"username" : "Robert Wells"
+	},
+	"6321941" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:46:03 AM",
+		"username" : "Robert Wells"
+	},
+	"6321942" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/17/2026 7:45:59 AM",
+		"username" : "Robert Wells"
+	}
+}</t>
   </si>
   <si>
     <t>6310701</t>
@@ -6958,6 +7539,163 @@
 		"manual" : 0,
 		"timestamp" : "2/11/2026 3:02:24 PM",
 		"username" : "zach fox"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6310475</t>
+  </si>
+  <si>
+    <t>{
+	"6310475" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:31:23 AM",
+		"username" : "Derek Bell"
+	},
+	"6310476" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:31:29 AM",
+		"username" : "Derek Bell"
+	},
+	"6310477" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:31:33 AM",
+		"username" : "Derek Bell"
+	},
+	"6310478" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:29:59 AM",
+		"username" : "Derek Bell"
+	},
+	"6310479" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/12/2026 10:31:49 AM",
+		"username" : "Derek Bell"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6316298</t>
+  </si>
+  <si>
+    <t>{
+	"6316298" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:39:42 PM",
+		"username" : "Derek Bell"
+	},
+	"6316299" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:39:32 PM",
+		"username" : "Derek Bell"
+	},
+	"6316300" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:40:13 PM",
+		"username" : "Derek Bell"
+	},
+	"6316301" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:50:31 PM",
+		"username" : "Derek Bell"
+	},
+	"6316302" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:41:39 PM",
+		"username" : "Derek Bell"
+	},
+	"6316303" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:39:52 PM",
+		"username" : "Derek Bell"
+	},
+	"6316304" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:39:47 PM",
+		"username" : "Derek Bell"
+	}
+}</t>
+  </si>
+  <si>
+    <t>6319303</t>
+  </si>
+  <si>
+    <t>{
+	"6319303" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:38:52 PM",
+		"username" : "Derek Bell"
+	},
+	"6319304" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:38:48 PM",
+		"username" : "Derek Bell"
+	},
+	"6319305" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:38:44 PM",
+		"username" : "Derek Bell"
+	},
+	"6319306" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:38:40 PM",
+		"username" : "Derek Bell"
+	},
+	"6319307" : 
+	{
+		"latitude" : "",
+		"longitude" : "",
+		"manual" : 0,
+		"timestamp" : "2/16/2026 2:44:45 PM",
+		"username" : "Derek Bell"
 	}
 }</t>
   </si>
@@ -9481,7 +10219,10 @@
         <v>46069</v>
       </c>
       <c r="C55" t="s" s="8">
-        <v>195</v>
+        <v>63</v>
+      </c>
+      <c r="D55" s="9">
+        <v>.7534722222222239493204</v>
       </c>
       <c r="E55" s="10">
         <v>7</v>
@@ -9499,13 +10240,13 @@
         <v>190</v>
       </c>
       <c r="K55" t="s" s="16">
+        <v>195</v>
+      </c>
+      <c r="L55" t="s" s="17">
         <v>196</v>
       </c>
-      <c r="L55" t="s" s="17">
+      <c r="M55" t="s" s="18">
         <v>197</v>
-      </c>
-      <c r="M55" t="s" s="18">
-        <v>198</v>
       </c>
     </row>
     <row r="56">
@@ -9522,33 +10263,30 @@
         <v>57</v>
       </c>
       <c r="H56" t="s" s="13">
+        <v>198</v>
+      </c>
+      <c r="I56" t="s" s="14">
         <v>199</v>
       </c>
-      <c r="I56" t="s" s="14">
+      <c r="K56" t="s" s="16">
         <v>200</v>
       </c>
-      <c r="K56" t="s" s="16">
+      <c r="L56" t="s" s="17">
         <v>201</v>
       </c>
-      <c r="L56" t="s" s="17">
+      <c r="M56" t="s" s="18">
         <v>202</v>
-      </c>
-      <c r="M56" t="s" s="18">
-        <v>203</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>928571</v>
+        <v>929644</v>
       </c>
       <c r="B57" s="7">
         <v>46070</v>
       </c>
       <c r="C57" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E57" s="10">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F57" t="s" s="11">
         <v>22</v>
@@ -9563,59 +10301,62 @@
         <v>204</v>
       </c>
       <c r="K57" t="s" s="16">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s" s="17">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M57" t="s" s="18">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>929637</v>
+        <v>928559</v>
       </c>
       <c r="B58" s="7">
         <v>46070</v>
       </c>
       <c r="C58" t="s" s="8">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="D58" s="9">
+        <v>.3923611111111120104756</v>
       </c>
       <c r="E58" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G58" t="s" s="12">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H58" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I58" t="s" s="14">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="K58" t="s" s="16">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="L58" t="s" s="17">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M58" t="s" s="18">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>929656</v>
+        <v>928560</v>
       </c>
       <c r="B59" s="7">
         <v>46070</v>
       </c>
       <c r="C59" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E59" s="10">
         <v>3</v>
@@ -9624,33 +10365,33 @@
         <v>22</v>
       </c>
       <c r="G59" t="s" s="12">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H59" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I59" t="s" s="14">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="K59" t="s" s="16">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="L59" t="s" s="17">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M59" t="s" s="18">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>929662</v>
+        <v>928547</v>
       </c>
       <c r="B60" s="7">
         <v>46070</v>
       </c>
       <c r="C60" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E60" s="10">
         <v>4</v>
@@ -9659,170 +10400,167 @@
         <v>22</v>
       </c>
       <c r="G60" t="s" s="12">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H60" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I60" t="s" s="14">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="K60" t="s" s="16">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="L60" t="s" s="17">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M60" t="s" s="18">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>929644</v>
+        <v>930450</v>
       </c>
       <c r="B61" s="7">
         <v>46070</v>
       </c>
       <c r="C61" t="s" s="8">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="D61" s="9">
+        <v>.40138888888888980894672</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
       </c>
       <c r="F61" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G61" t="s" s="12">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H61" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I61" t="s" s="14">
-        <v>204</v>
-      </c>
-      <c r="K61" t="s" s="16">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="L61" t="s" s="17">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M61" t="s" s="18">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>928559</v>
+        <v>930447</v>
       </c>
       <c r="B62" s="7">
         <v>46070</v>
       </c>
       <c r="C62" t="s" s="8">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="D62" s="9">
+        <v>.4305555555555565424688</v>
       </c>
       <c r="E62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G62" t="s" s="12">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H62" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I62" t="s" s="14">
-        <v>143</v>
-      </c>
-      <c r="K62" t="s" s="16">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="L62" t="s" s="17">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M62" t="s" s="18">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>928560</v>
+        <v>930403</v>
       </c>
       <c r="B63" s="7">
         <v>46070</v>
       </c>
       <c r="C63" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E63" s="10">
         <v>3</v>
       </c>
       <c r="F63" t="s" s="11">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="G63" t="s" s="12">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="H63" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I63" t="s" s="14">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="K63" t="s" s="16">
-        <v>219</v>
-      </c>
-      <c r="L63" t="s" s="17">
-        <v>220</v>
-      </c>
-      <c r="M63" t="s" s="18">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>928547</v>
+        <v>927773</v>
       </c>
       <c r="B64" s="7">
         <v>46070</v>
       </c>
       <c r="C64" t="s" s="8">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="D64" s="9">
+        <v>.399305555555556470838</v>
       </c>
       <c r="E64" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G64" t="s" s="12">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="H64" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I64" t="s" s="14">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="K64" t="s" s="16">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s" s="17">
-        <v>223</v>
-      </c>
-      <c r="M64" t="s" s="18">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>929661</v>
+        <v>928986</v>
       </c>
       <c r="B65" s="7">
         <v>46070</v>
       </c>
       <c r="C65" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E65" s="10">
         <v>4</v>
@@ -9831,237 +10569,231 @@
         <v>22</v>
       </c>
       <c r="G65" t="s" s="12">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="H65" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I65" t="s" s="14">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="K65" t="s" s="16">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s" s="17">
-        <v>225</v>
-      </c>
-      <c r="M65" t="s" s="18">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>930447</v>
+        <v>925829</v>
       </c>
       <c r="B66" s="7">
         <v>46070</v>
       </c>
       <c r="C66" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E66" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G66" t="s" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I66" t="s" s="14">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="L66" t="s" s="17">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="M66" t="s" s="18">
+        <v>229</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>930450</v>
+        <v>928571</v>
       </c>
       <c r="B67" s="7">
         <v>46070</v>
       </c>
       <c r="C67" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E67" s="10">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G67" t="s" s="12">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I67" t="s" s="14">
-        <v>28</v>
+      <c r="K67" t="s" s="16">
+        <v>31</v>
       </c>
       <c r="L67" t="s" s="17">
-        <v>228</v>
+        <v>230</v>
+      </c>
+      <c r="M67" t="s" s="18">
+        <v>231</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>930403</v>
+        <v>929637</v>
       </c>
       <c r="B68" s="7">
         <v>46070</v>
       </c>
       <c r="C68" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E68" s="10">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="F68" t="s" s="11">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s" s="12">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I68" t="s" s="14">
-        <v>231</v>
-      </c>
       <c r="K68" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="L68" t="s" s="17">
         <v>232</v>
+      </c>
+      <c r="M68" t="s" s="18">
+        <v>233</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>926844</v>
+        <v>929656</v>
       </c>
       <c r="B69" s="7">
         <v>46070</v>
       </c>
       <c r="C69" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E69" s="10">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F69" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G69" t="s" s="12">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I69" t="s" s="14">
-        <v>231</v>
-      </c>
       <c r="K69" t="s" s="16">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="L69" t="s" s="17">
         <v>234</v>
       </c>
+      <c r="M69" t="s" s="18">
+        <v>235</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>927773</v>
+        <v>929661</v>
       </c>
       <c r="B70" s="7">
         <v>46070</v>
       </c>
       <c r="C70" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E70" s="10">
-        <v>2</v>
+        <v>203</v>
       </c>
       <c r="F70" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G70" t="s" s="12">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="H70" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I70" t="s" s="14">
-        <v>231</v>
-      </c>
       <c r="K70" t="s" s="16">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="L70" t="s" s="17">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="M70" t="s" s="18">
+        <v>237</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>928986</v>
+        <v>929662</v>
       </c>
       <c r="B71" s="7">
         <v>46070</v>
       </c>
       <c r="C71" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E71" s="10">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="F71" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G71" t="s" s="12">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I71" t="s" s="14">
-        <v>231</v>
-      </c>
       <c r="K71" t="s" s="16">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="L71" t="s" s="17">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="M71" t="s" s="18">
+        <v>239</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>925829</v>
+        <v>926844</v>
       </c>
       <c r="B72" s="7">
         <v>46070</v>
       </c>
       <c r="C72" t="s" s="8">
-        <v>195</v>
+        <v>13</v>
+      </c>
+      <c r="D72" s="9">
+        <v>.381944444444445319932</v>
       </c>
       <c r="E72" s="10">
-        <v>5</v>
+        <v>.5</v>
       </c>
       <c r="F72" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G72" t="s" s="12">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="H72" t="s" s="13">
         <v>16</v>
       </c>
       <c r="I72" t="s" s="14">
-        <v>231</v>
+        <v>182</v>
+      </c>
+      <c r="K72" t="s" s="16">
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="17">
-        <v>238</v>
-      </c>
-      <c r="M72" t="s" s="18">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73">
@@ -10072,7 +10804,7 @@
         <v>46071</v>
       </c>
       <c r="C73" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s" s="11">
         <v>22</v>
@@ -10087,10 +10819,10 @@
         <v>128</v>
       </c>
       <c r="L73" t="s" s="17">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M73" t="s" s="18">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74">
@@ -10101,7 +10833,7 @@
         <v>46071</v>
       </c>
       <c r="C74" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F74" t="s" s="11">
         <v>22</v>
@@ -10113,13 +10845,13 @@
         <v>16</v>
       </c>
       <c r="K74" t="s" s="16">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L74" t="s" s="17">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M74" t="s" s="18">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75">
@@ -10130,7 +10862,7 @@
         <v>46071</v>
       </c>
       <c r="C75" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F75" t="s" s="11">
         <v>22</v>
@@ -10145,10 +10877,10 @@
         <v>75</v>
       </c>
       <c r="L75" t="s" s="17">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M75" t="s" s="18">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76">
@@ -10159,7 +10891,7 @@
         <v>46071</v>
       </c>
       <c r="C76" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F76" t="s" s="11">
         <v>22</v>
@@ -10174,44 +10906,50 @@
         <v>138</v>
       </c>
       <c r="L76" t="s" s="17">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M76" t="s" s="18">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>928969</v>
+        <v>929635</v>
       </c>
       <c r="B77" s="7">
         <v>46071</v>
       </c>
       <c r="C77" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F77" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G77" t="s" s="12">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H77" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K77" t="s" s="16">
-        <v>250</v>
+        <v>138</v>
+      </c>
+      <c r="L77" t="s" s="17">
+        <v>252</v>
+      </c>
+      <c r="M77" t="s" s="18">
+        <v>253</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>929635</v>
+        <v>929638</v>
       </c>
       <c r="B78" s="7">
         <v>46071</v>
       </c>
       <c r="C78" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F78" t="s" s="11">
         <v>22</v>
@@ -10223,21 +10961,24 @@
         <v>16</v>
       </c>
       <c r="K78" t="s" s="16">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="L78" t="s" s="17">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="M78" t="s" s="18">
+        <v>256</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6">
-        <v>929638</v>
+        <v>929642</v>
       </c>
       <c r="B79" s="7">
         <v>46071</v>
       </c>
       <c r="C79" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F79" t="s" s="11">
         <v>22</v>
@@ -10249,47 +10990,53 @@
         <v>16</v>
       </c>
       <c r="K79" t="s" s="16">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="L79" t="s" s="17">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="M79" t="s" s="18">
+        <v>258</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>929642</v>
+        <v>929646</v>
       </c>
       <c r="B80" s="7">
         <v>46071</v>
       </c>
       <c r="C80" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F80" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G80" t="s" s="12">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="H80" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K80" t="s" s="16">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="L80" t="s" s="17">
-        <v>255</v>
+        <v>259</v>
+      </c>
+      <c r="M80" t="s" s="18">
+        <v>260</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>929646</v>
+        <v>929654</v>
       </c>
       <c r="B81" s="7">
         <v>46071</v>
       </c>
       <c r="C81" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F81" t="s" s="11">
         <v>22</v>
@@ -10301,24 +11048,24 @@
         <v>16</v>
       </c>
       <c r="K81" t="s" s="16">
-        <v>138</v>
+        <v>261</v>
       </c>
       <c r="L81" t="s" s="17">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M81" t="s" s="18">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>929654</v>
+        <v>929655</v>
       </c>
       <c r="B82" s="7">
         <v>46071</v>
       </c>
       <c r="C82" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F82" t="s" s="11">
         <v>22</v>
@@ -10330,24 +11077,24 @@
         <v>16</v>
       </c>
       <c r="K82" t="s" s="16">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L82" t="s" s="17">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M82" t="s" s="18">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>929655</v>
+        <v>929659</v>
       </c>
       <c r="B83" s="7">
         <v>46071</v>
       </c>
       <c r="C83" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F83" t="s" s="11">
         <v>22</v>
@@ -10359,24 +11106,24 @@
         <v>16</v>
       </c>
       <c r="K83" t="s" s="16">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L83" t="s" s="17">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M83" t="s" s="18">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>929659</v>
+        <v>929663</v>
       </c>
       <c r="B84" s="7">
         <v>46071</v>
       </c>
       <c r="C84" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F84" t="s" s="11">
         <v>22</v>
@@ -10388,24 +11135,24 @@
         <v>16</v>
       </c>
       <c r="K84" t="s" s="16">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L84" t="s" s="17">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M84" t="s" s="18">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>929663</v>
+        <v>929672</v>
       </c>
       <c r="B85" s="7">
         <v>46071</v>
       </c>
       <c r="C85" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F85" t="s" s="11">
         <v>22</v>
@@ -10416,25 +11163,22 @@
       <c r="H85" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K85" t="s" s="16">
-        <v>266</v>
-      </c>
       <c r="L85" t="s" s="17">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M85" t="s" s="18">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>929672</v>
+        <v>929674</v>
       </c>
       <c r="B86" s="7">
         <v>46071</v>
       </c>
       <c r="C86" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s" s="11">
         <v>22</v>
@@ -10446,47 +11190,47 @@
         <v>16</v>
       </c>
       <c r="L86" t="s" s="17">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M86" t="s" s="18">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>929674</v>
+        <v>929677</v>
       </c>
       <c r="B87" s="7">
         <v>46071</v>
       </c>
       <c r="C87" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F87" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G87" t="s" s="12">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="H87" t="s" s="13">
         <v>16</v>
       </c>
       <c r="L87" t="s" s="17">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M87" t="s" s="18">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>929677</v>
+        <v>929678</v>
       </c>
       <c r="B88" s="7">
         <v>46071</v>
       </c>
       <c r="C88" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F88" t="s" s="11">
         <v>22</v>
@@ -10498,53 +11242,65 @@
         <v>16</v>
       </c>
       <c r="L88" t="s" s="17">
-        <v>273</v>
+        <v>278</v>
+      </c>
+      <c r="M88" t="s" s="18">
+        <v>279</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>929678</v>
+        <v>928969</v>
       </c>
       <c r="B89" s="7">
         <v>46071</v>
       </c>
       <c r="C89" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F89" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G89" t="s" s="12">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="H89" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="L89" t="s" s="17">
-        <v>274</v>
+      <c r="K89" t="s" s="16">
+        <v>281</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>929800</v>
+        <v>930440</v>
       </c>
       <c r="B90" s="7">
         <v>46071</v>
       </c>
       <c r="C90" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E90" s="10">
+        <v>3</v>
       </c>
       <c r="F90" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G90" t="s" s="12">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="H90" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K90" t="s" s="16">
-        <v>275</v>
+      <c r="I90" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="L90" t="s" s="17">
+        <v>282</v>
+      </c>
+      <c r="M90" t="s" s="18">
+        <v>283</v>
       </c>
     </row>
     <row r="91">
@@ -10555,126 +11311,144 @@
         <v>46071</v>
       </c>
       <c r="C91" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E91" s="10">
+        <v>4</v>
       </c>
       <c r="F91" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G91" t="s" s="12">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H91" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I91" t="s" s="14">
+        <v>40</v>
+      </c>
       <c r="K91" t="s" s="16">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L91" t="s" s="17">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M91" t="s" s="18">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>930440</v>
+        <v>928577</v>
       </c>
       <c r="B92" s="7">
         <v>46071</v>
       </c>
       <c r="C92" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E92" s="10">
+        <v>3</v>
       </c>
       <c r="F92" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G92" t="s" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I92" t="s" s="14">
+        <v>204</v>
+      </c>
+      <c r="K92" t="s" s="16">
+        <v>288</v>
+      </c>
       <c r="L92" t="s" s="17">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M92" t="s" s="18">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>928577</v>
+        <v>929206</v>
       </c>
       <c r="B93" s="7">
         <v>46071</v>
       </c>
       <c r="C93" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E93" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G93" t="s" s="12">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H93" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I93" t="s" s="14">
-        <v>204</v>
-      </c>
       <c r="K93" t="s" s="16">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="L93" t="s" s="17">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M93" t="s" s="18">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>929616</v>
+        <v>929172</v>
       </c>
       <c r="B94" s="7">
         <v>46071</v>
       </c>
       <c r="C94" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E94" s="10">
+        <v>2</v>
       </c>
       <c r="F94" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G94" t="s" s="12">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H94" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K94" t="s" s="16">
+        <v>118</v>
+      </c>
       <c r="L94" t="s" s="17">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M94" t="s" s="18">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>929206</v>
+        <v>929187</v>
       </c>
       <c r="B95" s="7">
         <v>46071</v>
       </c>
       <c r="C95" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E95" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s" s="11">
         <v>22</v>
@@ -10686,27 +11460,27 @@
         <v>16</v>
       </c>
       <c r="K95" t="s" s="16">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="L95" t="s" s="17">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M95" t="s" s="18">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>929172</v>
+        <v>929178</v>
       </c>
       <c r="B96" s="7">
         <v>46071</v>
       </c>
       <c r="C96" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E96" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s" s="11">
         <v>22</v>
@@ -10717,25 +11491,22 @@
       <c r="H96" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K96" t="s" s="16">
-        <v>118</v>
-      </c>
       <c r="L96" t="s" s="17">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M96" t="s" s="18">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>929187</v>
+        <v>929616</v>
       </c>
       <c r="B97" s="7">
         <v>46071</v>
       </c>
       <c r="C97" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E97" s="10">
         <v>3</v>
@@ -10744,30 +11515,30 @@
         <v>22</v>
       </c>
       <c r="G97" t="s" s="12">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H97" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K97" t="s" s="16">
-        <v>84</v>
+      <c r="I97" t="s" s="14">
+        <v>299</v>
       </c>
       <c r="L97" t="s" s="17">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M97" t="s" s="18">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>929178</v>
+        <v>929658</v>
       </c>
       <c r="B98" s="7">
         <v>46071</v>
       </c>
       <c r="C98" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E98" s="10">
         <v>4</v>
@@ -10776,135 +11547,153 @@
         <v>22</v>
       </c>
       <c r="G98" t="s" s="12">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I98" t="s" s="14">
+        <v>302</v>
+      </c>
+      <c r="K98" t="s" s="16">
+        <v>288</v>
+      </c>
       <c r="L98" t="s" s="17">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="M98" t="s" s="18">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>929658</v>
+        <v>930589</v>
       </c>
       <c r="B99" s="7">
         <v>46071</v>
       </c>
       <c r="C99" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E99" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G99" t="s" s="12">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H99" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I99" t="s" s="14">
-        <v>295</v>
-      </c>
       <c r="K99" t="s" s="16">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="L99" t="s" s="17">
-        <v>296</v>
+        <v>61</v>
       </c>
       <c r="M99" t="s" s="18">
-        <v>297</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>928872</v>
+        <v>930601</v>
       </c>
       <c r="B100" s="7">
         <v>46071</v>
       </c>
       <c r="C100" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E100" s="10">
+        <v>1</v>
       </c>
       <c r="F100" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G100" t="s" s="12">
-        <v>276</v>
+        <v>57</v>
       </c>
       <c r="H100" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K100" t="s" s="16">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c r="L100" t="s" s="17">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="M100" t="s" s="18">
-        <v>300</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>929610</v>
+        <v>929204</v>
       </c>
       <c r="B101" s="7">
         <v>46071</v>
       </c>
       <c r="C101" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E101" s="10">
+        <v>2</v>
       </c>
       <c r="F101" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G101" t="s" s="12">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H101" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K101" t="s" s="16">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="L101" t="s" s="17">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M101" t="s" s="18">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>930436</v>
+        <v>928872</v>
       </c>
       <c r="B102" s="7">
         <v>46071</v>
       </c>
       <c r="C102" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E102" s="10">
+        <v>2</v>
       </c>
       <c r="F102" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G102" t="s" s="12">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="H102" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I102" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="K102" t="s" s="16">
+        <v>308</v>
+      </c>
       <c r="L102" t="s" s="17">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M102" t="s" s="18">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103">
@@ -10915,7 +11704,10 @@
         <v>46071</v>
       </c>
       <c r="C103" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E103" s="10">
+        <v>3</v>
       </c>
       <c r="F103" t="s" s="11">
         <v>22</v>
@@ -10926,51 +11718,48 @@
       <c r="H103" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I103" t="s" s="14">
+        <v>307</v>
+      </c>
       <c r="L103" t="s" s="17">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M103" t="s" s="18">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>930439</v>
+        <v>929800</v>
       </c>
       <c r="B104" s="7">
         <v>46071</v>
       </c>
       <c r="C104" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G104" t="s" s="12">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="H104" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="L104" t="s" s="17">
-        <v>307</v>
-      </c>
-      <c r="M104" t="s" s="18">
-        <v>308</v>
+      <c r="K104" t="s" s="16">
+        <v>313</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>930589</v>
+        <v>930804</v>
       </c>
       <c r="B105" s="7">
         <v>46071</v>
       </c>
       <c r="C105" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E105" s="10">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s" s="11">
         <v>22</v>
@@ -10982,27 +11771,27 @@
         <v>16</v>
       </c>
       <c r="K105" t="s" s="16">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="L105" t="s" s="17">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="M105" t="s" s="18">
-        <v>62</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>930601</v>
+        <v>927812</v>
       </c>
       <c r="B106" s="7">
         <v>46071</v>
       </c>
       <c r="C106" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E106" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s" s="11">
         <v>22</v>
@@ -11013,153 +11802,144 @@
       <c r="H106" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K106" t="s" s="16">
-        <v>65</v>
-      </c>
       <c r="L106" t="s" s="17">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="M106" t="s" s="18">
-        <v>67</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>929204</v>
+        <v>929660</v>
       </c>
       <c r="B107" s="7">
         <v>46071</v>
       </c>
       <c r="C107" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E107" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G107" t="s" s="12">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H107" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I107" t="s" s="14">
+        <v>74</v>
+      </c>
       <c r="K107" t="s" s="16">
-        <v>84</v>
+        <v>316</v>
       </c>
       <c r="L107" t="s" s="17">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M107" t="s" s="18">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>927812</v>
+        <v>927776</v>
       </c>
       <c r="B108" s="7">
         <v>46071</v>
       </c>
       <c r="C108" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E108" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G108" t="s" s="12">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="H108" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I108" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="K108" t="s" s="16">
+        <v>163</v>
+      </c>
       <c r="L108" t="s" s="17">
-        <v>311</v>
-      </c>
-      <c r="M108" t="s" s="18">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>929660</v>
+        <v>927418</v>
       </c>
       <c r="B109" s="7">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="C109" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E109" s="10">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G109" t="s" s="12">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="H109" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="I109" t="s" s="14">
-        <v>74</v>
-      </c>
       <c r="K109" t="s" s="16">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="L109" t="s" s="17">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M109" t="s" s="18">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>927776</v>
+        <v>927772</v>
       </c>
       <c r="B110" s="7">
-        <v>46071</v>
+        <v>46072</v>
       </c>
       <c r="C110" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E110" s="10">
-        <v>3</v>
+        <v>322</v>
       </c>
       <c r="F110" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G110" t="s" s="12">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H110" t="s" s="13">
         <v>16</v>
-      </c>
-      <c r="I110" t="s" s="14">
-        <v>74</v>
       </c>
       <c r="K110" t="s" s="16">
         <v>163</v>
       </c>
       <c r="L110" t="s" s="17">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>927418</v>
+        <v>927798</v>
       </c>
       <c r="B111" s="7">
         <v>46072</v>
       </c>
       <c r="C111" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F111" t="s" s="11">
         <v>22</v>
@@ -11171,105 +11951,108 @@
         <v>16</v>
       </c>
       <c r="K111" t="s" s="16">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="L111" t="s" s="17">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M111" t="s" s="18">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="6">
-        <v>927772</v>
+        <v>927811</v>
       </c>
       <c r="B112" s="7">
         <v>46072</v>
       </c>
       <c r="C112" t="s" s="8">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="F112" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G112" t="s" s="12">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="H112" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K112" t="s" s="16">
-        <v>163</v>
-      </c>
       <c r="L112" t="s" s="17">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="M112" t="s" s="18">
+        <v>327</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6">
-        <v>927798</v>
+        <v>929636</v>
       </c>
       <c r="B113" s="7">
         <v>46072</v>
       </c>
       <c r="C113" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F113" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G113" t="s" s="12">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H113" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K113" t="s" s="16">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="L113" t="s" s="17">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M113" t="s" s="18">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="6">
-        <v>927811</v>
+        <v>929640</v>
       </c>
       <c r="B114" s="7">
         <v>46072</v>
       </c>
       <c r="C114" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F114" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G114" t="s" s="12">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H114" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K114" t="s" s="16">
+        <v>31</v>
+      </c>
       <c r="L114" t="s" s="17">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M114" t="s" s="18">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="6">
-        <v>929636</v>
+        <v>929649</v>
       </c>
       <c r="B115" s="7">
         <v>46072</v>
       </c>
       <c r="C115" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s" s="11">
         <v>22</v>
@@ -11281,24 +12064,24 @@
         <v>16</v>
       </c>
       <c r="K115" t="s" s="16">
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="L115" t="s" s="17">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="M115" t="s" s="18">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="6">
-        <v>929640</v>
+        <v>929652</v>
       </c>
       <c r="B116" s="7">
         <v>46072</v>
       </c>
       <c r="C116" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F116" t="s" s="11">
         <v>22</v>
@@ -11310,53 +12093,53 @@
         <v>16</v>
       </c>
       <c r="K116" t="s" s="16">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="L116" t="s" s="17">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M116" t="s" s="18">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="6">
-        <v>929649</v>
+        <v>929657</v>
       </c>
       <c r="B117" s="7">
         <v>46072</v>
       </c>
       <c r="C117" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F117" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G117" t="s" s="12">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H117" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K117" t="s" s="16">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="L117" t="s" s="17">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M117" t="s" s="18">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="6">
-        <v>929652</v>
+        <v>929666</v>
       </c>
       <c r="B118" s="7">
         <v>46072</v>
       </c>
       <c r="C118" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F118" t="s" s="11">
         <v>22</v>
@@ -11368,232 +12151,238 @@
         <v>16</v>
       </c>
       <c r="K118" t="s" s="16">
-        <v>332</v>
+        <v>195</v>
       </c>
       <c r="L118" t="s" s="17">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M118" t="s" s="18">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="6">
-        <v>929657</v>
+        <v>929667</v>
       </c>
       <c r="B119" s="7">
         <v>46072</v>
       </c>
       <c r="C119" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F119" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G119" t="s" s="12">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="H119" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K119" t="s" s="16">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="L119" t="s" s="17">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M119" t="s" s="18">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="6">
-        <v>929666</v>
+        <v>929669</v>
       </c>
       <c r="B120" s="7">
         <v>46072</v>
       </c>
       <c r="C120" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F120" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G120" t="s" s="12">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="H120" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K120" t="s" s="16">
-        <v>196</v>
-      </c>
       <c r="L120" t="s" s="17">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M120" t="s" s="18">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="6">
-        <v>929667</v>
+        <v>929670</v>
       </c>
       <c r="B121" s="7">
         <v>46072</v>
       </c>
       <c r="C121" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F121" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G121" t="s" s="12">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K121" t="s" s="16">
-        <v>258</v>
-      </c>
       <c r="L121" t="s" s="17">
-        <v>340</v>
+        <v>347</v>
+      </c>
+      <c r="M121" t="s" s="18">
+        <v>348</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="6">
-        <v>929669</v>
+        <v>929671</v>
       </c>
       <c r="B122" s="7">
         <v>46072</v>
       </c>
       <c r="C122" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F122" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G122" t="s" s="12">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="H122" t="s" s="13">
         <v>16</v>
       </c>
       <c r="L122" t="s" s="17">
-        <v>341</v>
+        <v>349</v>
+      </c>
+      <c r="M122" t="s" s="18">
+        <v>350</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="6">
-        <v>929670</v>
+        <v>929673</v>
       </c>
       <c r="B123" s="7">
         <v>46072</v>
       </c>
       <c r="C123" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F123" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G123" t="s" s="12">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H123" t="s" s="13">
         <v>16</v>
       </c>
       <c r="L123" t="s" s="17">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="M123" t="s" s="18">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="6">
-        <v>929671</v>
+        <v>929675</v>
       </c>
       <c r="B124" s="7">
         <v>46072</v>
       </c>
       <c r="C124" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F124" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G124" t="s" s="12">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="H124" t="s" s="13">
         <v>16</v>
       </c>
       <c r="L124" t="s" s="17">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M124" t="s" s="18">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="6">
-        <v>929673</v>
+        <v>929609</v>
       </c>
       <c r="B125" s="7">
         <v>46072</v>
       </c>
       <c r="C125" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F125" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G125" t="s" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H125" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K125" t="s" s="16">
+        <v>261</v>
+      </c>
       <c r="L125" t="s" s="17">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M125" t="s" s="18">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="6">
-        <v>929675</v>
+        <v>929614</v>
       </c>
       <c r="B126" s="7">
         <v>46072</v>
       </c>
       <c r="C126" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F126" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G126" t="s" s="12">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="H126" t="s" s="13">
         <v>16</v>
       </c>
       <c r="L126" t="s" s="17">
-        <v>348</v>
+        <v>357</v>
+      </c>
+      <c r="M126" t="s" s="18">
+        <v>358</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="6">
-        <v>929609</v>
+        <v>929617</v>
       </c>
       <c r="B127" s="7">
         <v>46072</v>
       </c>
       <c r="C127" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F127" t="s" s="11">
         <v>22</v>
@@ -11604,25 +12393,22 @@
       <c r="H127" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K127" t="s" s="16">
-        <v>258</v>
-      </c>
       <c r="L127" t="s" s="17">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M127" t="s" s="18">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="6">
-        <v>929614</v>
+        <v>930444</v>
       </c>
       <c r="B128" s="7">
         <v>46072</v>
       </c>
       <c r="C128" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F128" t="s" s="11">
         <v>22</v>
@@ -11634,79 +12420,82 @@
         <v>16</v>
       </c>
       <c r="L128" t="s" s="17">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M128" t="s" s="18">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="6">
-        <v>930444</v>
+        <v>930449</v>
       </c>
       <c r="B129" s="7">
         <v>46072</v>
       </c>
       <c r="C129" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E129" s="10">
+        <v>1</v>
       </c>
       <c r="F129" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G129" t="s" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H129" t="s" s="13">
         <v>16</v>
       </c>
       <c r="L129" t="s" s="17">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M129" t="s" s="18">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="6">
-        <v>929617</v>
+        <v>930446</v>
       </c>
       <c r="B130" s="7">
         <v>46072</v>
       </c>
       <c r="C130" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E130" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G130" t="s" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H130" t="s" s="13">
         <v>16</v>
       </c>
       <c r="L130" t="s" s="17">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="M130" t="s" s="18">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="6">
-        <v>930449</v>
+        <v>930448</v>
       </c>
       <c r="B131" s="7">
         <v>46072</v>
       </c>
       <c r="C131" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E131" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F131" t="s" s="11">
         <v>22</v>
@@ -11718,70 +12507,79 @@
         <v>16</v>
       </c>
       <c r="L131" t="s" s="17">
-        <v>357</v>
+        <v>367</v>
+      </c>
+      <c r="M131" t="s" s="18">
+        <v>368</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="6">
-        <v>930446</v>
+        <v>929612</v>
       </c>
       <c r="B132" s="7">
         <v>46072</v>
       </c>
       <c r="C132" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="F132" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="H132" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="K132" t="s" s="16">
         <v>195</v>
       </c>
-      <c r="E132" s="10">
-        <v>2</v>
-      </c>
-      <c r="F132" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s" s="13">
-        <v>16</v>
-      </c>
       <c r="L132" t="s" s="17">
-        <v>358</v>
+        <v>369</v>
+      </c>
+      <c r="M132" t="s" s="18">
+        <v>370</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="6">
-        <v>930448</v>
+        <v>929611</v>
       </c>
       <c r="B133" s="7">
         <v>46072</v>
       </c>
       <c r="C133" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E133" s="10">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="F133" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G133" t="s" s="12">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H133" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K133" t="s" s="16">
+        <v>371</v>
+      </c>
       <c r="L133" t="s" s="17">
-        <v>359</v>
+        <v>372</v>
+      </c>
+      <c r="M133" t="s" s="18">
+        <v>373</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="6">
-        <v>929612</v>
+        <v>929613</v>
       </c>
       <c r="B134" s="7">
         <v>46072</v>
       </c>
       <c r="C134" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F134" t="s" s="11">
         <v>22</v>
@@ -11793,24 +12591,24 @@
         <v>16</v>
       </c>
       <c r="K134" t="s" s="16">
-        <v>196</v>
+        <v>374</v>
       </c>
       <c r="L134" t="s" s="17">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="M134" t="s" s="18">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="6">
-        <v>929611</v>
+        <v>930442</v>
       </c>
       <c r="B135" s="7">
         <v>46072</v>
       </c>
       <c r="C135" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F135" t="s" s="11">
         <v>22</v>
@@ -11821,25 +12619,22 @@
       <c r="H135" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K135" t="s" s="16">
-        <v>362</v>
-      </c>
       <c r="L135" t="s" s="17">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="M135" t="s" s="18">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="6">
-        <v>929613</v>
+        <v>930443</v>
       </c>
       <c r="B136" s="7">
         <v>46072</v>
       </c>
       <c r="C136" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F136" t="s" s="11">
         <v>22</v>
@@ -11850,193 +12645,196 @@
       <c r="H136" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K136" t="s" s="16">
-        <v>365</v>
-      </c>
       <c r="L136" t="s" s="17">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="M136" t="s" s="18">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="6">
-        <v>930442</v>
+        <v>927429</v>
       </c>
       <c r="B137" s="7">
         <v>46072</v>
       </c>
       <c r="C137" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F137" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G137" t="s" s="12">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H137" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K137" t="s" s="16">
+        <v>36</v>
+      </c>
       <c r="L137" t="s" s="17">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="M137" t="s" s="18">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="6">
-        <v>930443</v>
+        <v>927415</v>
       </c>
       <c r="B138" s="7">
         <v>46072</v>
       </c>
       <c r="C138" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="E138" s="10">
+        <v>3</v>
       </c>
       <c r="F138" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G138" t="s" s="12">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H138" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K138" t="s" s="16">
+        <v>36</v>
+      </c>
       <c r="L138" t="s" s="17">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M138" t="s" s="18">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="6">
-        <v>927429</v>
+        <v>929651</v>
       </c>
       <c r="B139" s="7">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="C139" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F139" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G139" t="s" s="12">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H139" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K139" t="s" s="16">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="L139" t="s" s="17">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="M139" t="s" s="18">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="6">
-        <v>927415</v>
+        <v>929676</v>
       </c>
       <c r="B140" s="7">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="C140" t="s" s="8">
-        <v>195</v>
-      </c>
-      <c r="E140" s="10">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="F140" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G140" t="s" s="12">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H140" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K140" t="s" s="16">
-        <v>36</v>
-      </c>
       <c r="L140" t="s" s="17">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="M140" t="s" s="18">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="6">
-        <v>929651</v>
+        <v>927209</v>
       </c>
       <c r="B141" s="7">
         <v>46073</v>
       </c>
       <c r="C141" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F141" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G141" t="s" s="12">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="H141" t="s" s="13">
         <v>16</v>
       </c>
       <c r="K141" t="s" s="16">
-        <v>376</v>
+        <v>36</v>
       </c>
       <c r="L141" t="s" s="17">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M141" t="s" s="18">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="6">
-        <v>929676</v>
+        <v>927615</v>
       </c>
       <c r="B142" s="7">
         <v>46073</v>
       </c>
       <c r="C142" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F142" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G142" t="s" s="12">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H142" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K142" t="s" s="16">
+        <v>392</v>
+      </c>
       <c r="L142" t="s" s="17">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="M142" t="s" s="18">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="6">
-        <v>927209</v>
+        <v>927616</v>
       </c>
       <c r="B143" s="7">
         <v>46073</v>
       </c>
       <c r="C143" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F143" t="s" s="11">
         <v>22</v>
@@ -12051,21 +12849,21 @@
         <v>36</v>
       </c>
       <c r="L143" t="s" s="17">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="M143" t="s" s="18">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="6">
-        <v>927615</v>
+        <v>928545</v>
       </c>
       <c r="B144" s="7">
         <v>46073</v>
       </c>
       <c r="C144" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F144" t="s" s="11">
         <v>22</v>
@@ -12077,24 +12875,24 @@
         <v>16</v>
       </c>
       <c r="K144" t="s" s="16">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="L144" t="s" s="17">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="M144" t="s" s="18">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="6">
-        <v>927616</v>
+        <v>928566</v>
       </c>
       <c r="B145" s="7">
         <v>46073</v>
       </c>
       <c r="C145" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F145" t="s" s="11">
         <v>22</v>
@@ -12106,111 +12904,114 @@
         <v>16</v>
       </c>
       <c r="K145" t="s" s="16">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="L145" t="s" s="17">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="M145" t="s" s="18">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="6">
-        <v>928545</v>
+        <v>929610</v>
       </c>
       <c r="B146" s="7">
         <v>46073</v>
       </c>
       <c r="C146" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F146" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G146" t="s" s="12">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="H146" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="I146" t="s" s="14">
+        <v>307</v>
+      </c>
       <c r="K146" t="s" s="16">
-        <v>388</v>
+        <v>261</v>
       </c>
       <c r="L146" t="s" s="17">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="M146" t="s" s="18">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="6">
-        <v>928566</v>
+        <v>930436</v>
       </c>
       <c r="B147" s="7">
         <v>46073</v>
       </c>
       <c r="C147" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F147" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G147" t="s" s="12">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="H147" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K147" t="s" s="16">
-        <v>84</v>
+      <c r="I147" t="s" s="14">
+        <v>307</v>
       </c>
       <c r="L147" t="s" s="17">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M147" t="s" s="18">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="6">
-        <v>929634</v>
+        <v>930439</v>
       </c>
       <c r="B148" s="7">
-        <v>46076</v>
+        <v>46073</v>
       </c>
       <c r="C148" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F148" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G148" t="s" s="12">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H148" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K148" t="s" s="16">
-        <v>31</v>
+      <c r="I148" t="s" s="14">
+        <v>307</v>
       </c>
       <c r="L148" t="s" s="17">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="M148" t="s" s="18">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="6">
-        <v>929648</v>
+        <v>929634</v>
       </c>
       <c r="B149" s="7">
         <v>46076</v>
       </c>
       <c r="C149" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F149" t="s" s="11">
         <v>22</v>
@@ -12222,50 +13023,53 @@
         <v>16</v>
       </c>
       <c r="K149" t="s" s="16">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="L149" t="s" s="17">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="M149" t="s" s="18">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="6">
-        <v>930434</v>
+        <v>929648</v>
       </c>
       <c r="B150" s="7">
         <v>46076</v>
       </c>
       <c r="C150" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F150" t="s" s="11">
         <v>22</v>
       </c>
       <c r="G150" t="s" s="12">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H150" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K150" t="s" s="16">
+        <v>145</v>
+      </c>
       <c r="L150" t="s" s="17">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="M150" t="s" s="18">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="6">
-        <v>930435</v>
+        <v>930434</v>
       </c>
       <c r="B151" s="7">
         <v>46076</v>
       </c>
       <c r="C151" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F151" t="s" s="11">
         <v>22</v>
@@ -12276,25 +13080,22 @@
       <c r="H151" t="s" s="13">
         <v>16</v>
       </c>
-      <c r="K151" t="s" s="16">
-        <v>84</v>
-      </c>
       <c r="L151" t="s" s="17">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="M151" t="s" s="18">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="6">
-        <v>930441</v>
+        <v>930435</v>
       </c>
       <c r="B152" s="7">
         <v>46076</v>
       </c>
       <c r="C152" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F152" t="s" s="11">
         <v>22</v>
@@ -12305,22 +13106,25 @@
       <c r="H152" t="s" s="13">
         <v>16</v>
       </c>
+      <c r="K152" t="s" s="16">
+        <v>84</v>
+      </c>
       <c r="L152" t="s" s="17">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M152" t="s" s="18">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="6">
-        <v>930445</v>
+        <v>930441</v>
       </c>
       <c r="B153" s="7">
         <v>46076</v>
       </c>
       <c r="C153" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F153" t="s" s="11">
         <v>22</v>
@@ -12332,21 +13136,21 @@
         <v>16</v>
       </c>
       <c r="L153" t="s" s="17">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="M153" t="s" s="18">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="6">
-        <v>930437</v>
+        <v>930445</v>
       </c>
       <c r="B154" s="7">
-        <v>46077</v>
+        <v>46076</v>
       </c>
       <c r="C154" t="s" s="8">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F154" t="s" s="11">
         <v>22</v>
@@ -12358,10 +13162,36 @@
         <v>16</v>
       </c>
       <c r="L154" t="s" s="17">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="M154" t="s" s="18">
-        <v>406</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6">
+        <v>930437</v>
+      </c>
+      <c r="B155" s="7">
+        <v>46077</v>
+      </c>
+      <c r="C155" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="F155" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="H155" t="s" s="13">
+        <v>16</v>
+      </c>
+      <c r="L155" t="s" s="17">
+        <v>420</v>
+      </c>
+      <c r="M155" t="s" s="18">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
